--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14556" windowHeight="5136" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>備註說明</t>
   </si>
@@ -186,9 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政府補貼利率-貸款種類2</t>
-  </si>
-  <si>
     <t>SubsidyRate1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -198,10 +197,6 @@
   </si>
   <si>
     <t>SubsidyRate2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubsidyRate (續編)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -210,10 +205,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>政府補貼利率-貸款種類 (續編)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>1.政府補貼利率</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -222,14 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政府補貼利率-貸款種類1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西元年</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>政府補貼利率-生效日期</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -303,6 +286,40 @@
   <si>
     <t>CdTypeAscFirst</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsidyRate3</t>
+  </si>
+  <si>
+    <t>SubsidyRate4</t>
+  </si>
+  <si>
+    <t>SubsidyRate5</t>
+  </si>
+  <si>
+    <t>SubsidyRate6</t>
+  </si>
+  <si>
+    <t>政府補貼利率1-青年優惠房屋貸款暨信用保證專案</t>
+  </si>
+  <si>
+    <t>政府補貼利率2-四千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>政府補貼利率3-續辦二千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>政府補貼利率4-續辦四千八百億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>政府補貼利率5-續辦六千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>政府補貼利率6-增撥新台幣四千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>西元年20220323</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,9 +596,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -591,11 +605,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -615,8 +632,11 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -947,10 +967,10 @@
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -975,7 +995,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -1056,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>30</v>
@@ -1068,19 +1088,19 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
-        <f t="shared" ref="A10:A18" si="0">A9+1</f>
+        <f t="shared" ref="A10:A12" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>29</v>
@@ -1089,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1116,11 +1136,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>61</v>
+      <c r="B12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>29</v>
@@ -1128,11 +1148,11 @@
       <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>63</v>
+      <c r="F12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1201,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E16" s="19">
         <v>6</v>
@@ -1236,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E18" s="19">
         <v>6</v>
@@ -1289,10 +1309,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -1300,10 +1320,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1321,58 +1341,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1"/>
-    <col min="8" max="8" width="46.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="59" style="31" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="32" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>48</v>
+      <c r="A1" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
+      <c r="A4" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1382,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>35</v>
@@ -1394,11 +1415,11 @@
         <v>8</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="H8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>45</v>
+      <c r="H8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1407,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>37</v>
@@ -1421,9 +1442,11 @@
       <c r="G9" s="19">
         <v>4</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="31" t="s">
-        <v>45</v>
+      <c r="H9" s="40">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1432,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>37</v>
@@ -1446,9 +1469,11 @@
       <c r="G10" s="19">
         <v>4</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="31" t="s">
-        <v>45</v>
+      <c r="H10" s="40">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1457,10 +1482,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>37</v>
@@ -1471,10 +1496,93 @@
       <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="H11" s="40">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>5</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="19">
+        <v>6</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="19">
+        <v>6</v>
+      </c>
+      <c r="G13" s="19">
+        <v>4</v>
+      </c>
+      <c r="H13" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="19">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19">
+        <v>4</v>
+      </c>
+      <c r="H14" s="40">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -1,38 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC306D5-0E1A-4828-A83C-0405C1CBA52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14556" windowHeight="5136" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>備註說明</t>
   </si>
@@ -189,10 +179,6 @@
   </si>
   <si>
     <t>SubsidyRate1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5801</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -205,10 +191,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.政府補貼利率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>SubsidyEffectDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,13 +301,29 @@
   </si>
   <si>
     <t>西元年20220323</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.政府補貼利率(補貼息)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5802</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5081</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -514,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,6 +612,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -632,11 +636,8 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,6 +732,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -766,6 +784,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -941,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -962,23 +997,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -990,12 +1025,12 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -1005,10 +1040,10 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="15"/>
       <c r="D4" s="5"/>
       <c r="E4" s="14"/>
@@ -1016,10 +1051,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="15"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1027,10 +1062,10 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="14"/>
@@ -1038,10 +1073,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="16"/>
@@ -1076,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>30</v>
@@ -1088,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,10 +1132,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>29</v>
@@ -1109,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>29</v>
@@ -1149,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1221,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="19">
         <v>6</v>
@@ -1256,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="19">
         <v>6</v>
@@ -1280,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -1309,10 +1344,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -1320,10 +1355,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1340,11 +1375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1361,17 +1396,20 @@
     <col min="10" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>41</v>
       </c>
@@ -1396,17 +1434,20 @@
       <c r="I7" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>35</v>
@@ -1415,14 +1456,17 @@
         <v>8</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="19">
         <v>2</v>
@@ -1431,7 +1475,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>37</v>
@@ -1442,23 +1486,26 @@
       <c r="G9" s="19">
         <v>4</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="34">
         <v>0.97499999999999998</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <v>3</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>37</v>
@@ -1469,23 +1516,26 @@
       <c r="G10" s="19">
         <v>4</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="34">
         <v>0.97499999999999998</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="19">
         <v>4</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>37</v>
@@ -1496,22 +1546,25 @@
       <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="34">
         <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="19">
         <v>5</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>37</v>
@@ -1522,22 +1575,25 @@
       <c r="G12" s="19">
         <v>4</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="34">
         <v>0.375</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <v>6</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>37</v>
@@ -1548,22 +1604,25 @@
       <c r="G13" s="19">
         <v>4</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="34">
         <v>0.25</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
         <v>6</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>37</v>
@@ -1574,15 +1633,18 @@
       <c r="G14" s="19">
         <v>4</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="34">
         <v>0.82499999999999996</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="39"/>
+      <c r="D17" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC306D5-0E1A-4828-A83C-0405C1CBA52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99996E69-4259-4CA2-BE56-D4EC832E271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -229,11 +229,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Y:啟用
-N:未啟用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +313,12 @@
   <si>
     <t>L5081</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率:
+ N:未生效(未執行整批利率變更)
+ Y:已生效(不可修改、刪除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,6 +619,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,8 +640,8 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -997,10 +1001,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
@@ -1012,8 +1016,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1025,10 +1029,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="13" t="s">
         <v>52</v>
       </c>
@@ -1040,10 +1044,10 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="15"/>
       <c r="D4" s="5"/>
       <c r="E4" s="14"/>
@@ -1051,10 +1055,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="15"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1062,10 +1066,10 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="14"/>
@@ -1073,10 +1077,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="16"/>
@@ -1111,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>50</v>
@@ -1123,16 +1127,16 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
-        <f t="shared" ref="A10:A12" si="0">A9+1</f>
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -1144,12 +1148,12 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1166,9 +1170,9 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -1186,8 +1190,8 @@
       <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>56</v>
+      <c r="G12" s="42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,7 +1215,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
-        <f t="shared" ref="A14:A18" si="1">A13+1</f>
+        <f>A13+1</f>
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -1230,7 +1234,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
-        <f t="shared" si="1"/>
+        <f>A14+1</f>
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -1246,7 +1250,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <f t="shared" si="1"/>
+        <f>A15+1</f>
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -1256,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="19">
         <v>6</v>
@@ -1265,7 +1269,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <f t="shared" si="1"/>
+        <f>A16+1</f>
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -1281,7 +1285,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <f t="shared" si="1"/>
+        <f>A17+1</f>
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -1291,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="19">
         <v>6</v>
@@ -1344,10 +1348,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -1355,10 +1359,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1378,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J14"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1403,11 +1407,11 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="35"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
@@ -1435,7 +1439,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1457,13 +1461,13 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1475,7 +1479,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>37</v>
@@ -1490,10 +1494,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1505,7 +1509,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>37</v>
@@ -1520,10 +1524,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1532,10 +1536,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>37</v>
@@ -1550,10 +1554,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1561,10 +1565,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>37</v>
@@ -1579,10 +1583,10 @@
         <v>0.375</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1590,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>37</v>
@@ -1608,10 +1612,10 @@
         <v>0.25</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1619,10 +1623,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>37</v>
@@ -1637,10 +1641,10 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99996E69-4259-4CA2-BE56-D4EC832E271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097F300B-862D-41CF-85E4-3FE30FB7589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,9 +639,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,24 +980,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="8"/>
-    <col min="9" max="9" width="42.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="21.44140625" style="8"/>
+    <col min="3" max="3" width="44.6328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6328125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" style="8"/>
+    <col min="9" max="9" width="42.6328125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="21.453125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1012,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="9" t="s">
@@ -1028,7 +1025,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="41" t="s">
         <v>18</v>
       </c>
@@ -1043,7 +1040,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1051,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="41" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1062,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1073,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="38" t="s">
         <v>22</v>
       </c>
@@ -1087,7 +1084,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1130,9 +1127,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
-        <f>A9+1</f>
+        <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1151,9 +1148,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="19">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1170,9 +1167,9 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -1190,13 +1187,13 @@
       <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="19">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1213,9 +1210,9 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -1228,13 +1225,13 @@
         <v>29</v>
       </c>
       <c r="E14" s="19">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="19">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -1248,9 +1245,9 @@
       </c>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -1267,9 +1264,9 @@
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="19">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -1283,9 +1280,9 @@
       </c>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -1327,15 +1324,15 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="83" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1368,7 +1365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
     </row>
   </sheetData>
@@ -1386,34 +1383,34 @@
       <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="31" customWidth="1"/>
     <col min="2" max="2" width="11" style="31" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="31" customWidth="1"/>
     <col min="4" max="4" width="59" style="31" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="46.6640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="32" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="31"/>
+    <col min="5" max="5" width="10.453125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="4.90625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="46.6328125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="25.36328125" style="32" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="35"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" s="27" t="s">
         <v>41</v>
       </c>
@@ -1442,7 +1439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <v>1</v>
@@ -1470,7 +1467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="19">
         <v>2</v>
@@ -1500,7 +1497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <v>3</v>
@@ -1530,7 +1527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="19">
         <v>4</v>
@@ -1560,7 +1557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="19">
         <v>6</v>
       </c>
@@ -1618,7 +1615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="19">
         <v>6</v>
       </c>
@@ -1647,7 +1644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D17" s="33"/>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097F300B-862D-41CF-85E4-3FE30FB7589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C0C6D-C74F-486F-B355-D043A529FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,9 +658,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -698,9 +698,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,26 +733,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,26 +768,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1225,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="19">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F14" s="24"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C0C6D-C74F-486F-B355-D043A529FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB73AFE0-19EA-44BC-BF5F-43308FD5529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="19">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="24"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB73AFE0-19EA-44BC-BF5F-43308FD5529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05488417-08EE-4DF5-B3B6-01870335D3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
   <si>
     <t>備註說明</t>
   </si>
@@ -43,15 +43,15 @@
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
@@ -76,11 +76,11 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UNI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
@@ -99,128 +99,128 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EffectDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EffectDate desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EffectDate asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JsonFields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jason格式紀錄欄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>更新程式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SubsidyRate1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SubsidyRate2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT  JSON_VALUE  ("JsonFields",  '$.SubsidyRate1') AS SubsidyRate1
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SubsidyEffectDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政府補貼利率-生效日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CdComm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>雜項代碼檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>代碼類別</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>代碼項目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CdType,CdItem,EffectDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>啟用記號</t>
@@ -230,39 +230,31 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:政府補貼利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:補貼息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CdType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CdItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CdType = ,AND CdItem = ,AND EffectDate &gt;= ,AND EffectDate &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdType = ,AND CdItem = ,AND EffectDate &gt;= ,AND EffectDate &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdTypeDescFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdTypeAscFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubsidyRate3</t>
@@ -277,9 +269,6 @@
     <t>SubsidyRate6</t>
   </si>
   <si>
-    <t>政府補貼利率1-青年優惠房屋貸款暨信用保證專案</t>
-  </si>
-  <si>
     <t>政府補貼利率2-四千億元優惠購屋專案貸款</t>
   </si>
   <si>
@@ -296,41 +285,302 @@
   </si>
   <si>
     <t>西元年20220323</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1.政府補貼利率(補貼息)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>L5802</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>查詢</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>L5081</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>政府補貼利率:
  N:未生效(未執行整批利率變更)
  Y:已生效(不可修改、刪除)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:政府補貼利率
+02:專案放款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案放款生效日期固定取1日(02:專案放款)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:補貼息
+02:放款金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(放款金額)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.專案放款(2.放款金額)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6304</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料年月</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>340LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o340LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o990LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>921LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o921LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>990LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIALoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IALoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oToTalLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToTalLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IILoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIILoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIBLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oICLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIDLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIFLoanBal</t>
+  </si>
+  <si>
+    <t>oIGLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIELoanBal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IELoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIHLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收金額-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率1-青年優惠房屋貸款暨信用保證專案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>921重建優惠房屋貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次購屋貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次購屋貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>921重建優惠房屋貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收款項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IA 1200億青年優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IA 1200億青年優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 20億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 20億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE 15億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE 15億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF 12億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF 12億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG 10億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG 10億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>II 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>II 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案貸款總額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案貸款總額-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>88風災調整數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -508,8 +758,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -517,132 +773,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{77367FA6-61AF-46C5-BA64-2D1EB70AC746}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{74F5CAF7-F319-4DB4-BAF7-AF4FBE364C94}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1073,12 +1331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>50</v>
@@ -1090,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -1111,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1131,7 +1389,9 @@
       <c r="E11" s="19">
         <v>8</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
@@ -1154,7 +1414,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1275,7 +1535,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1311,10 +1571,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -1322,10 +1582,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1335,7 +1595,7 @@
       <c r="A8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1343,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1370,7 +1630,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -1402,7 +1662,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -1424,13 +1684,13 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1442,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>37</v>
@@ -1457,10 +1717,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1472,7 +1732,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>37</v>
@@ -1487,10 +1747,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -1499,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>37</v>
@@ -1517,10 +1777,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1528,10 +1788,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>37</v>
@@ -1546,10 +1806,10 @@
         <v>0.375</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1557,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>37</v>
@@ -1575,10 +1835,10 @@
         <v>0.25</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1586,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>37</v>
@@ -1604,17 +1864,684 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D17" s="33"/>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="19">
+        <v>8</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="19">
+        <v>16</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="19">
+        <v>16</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="19">
+        <v>16</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="19"/>
+      <c r="C26" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="19">
+        <v>16</v>
+      </c>
+      <c r="G26" s="19">
+        <v>2</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="19"/>
+      <c r="C27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="19">
+        <v>16</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="19"/>
+      <c r="C28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="19">
+        <v>16</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="19"/>
+      <c r="C29" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="19">
+        <v>16</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="19"/>
+      <c r="C30" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="19">
+        <v>16</v>
+      </c>
+      <c r="G30" s="19">
+        <v>2</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="19"/>
+      <c r="C31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="19">
+        <v>16</v>
+      </c>
+      <c r="G31" s="19">
+        <v>2</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="19"/>
+      <c r="C32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="19">
+        <v>16</v>
+      </c>
+      <c r="G32" s="19">
+        <v>2</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="I32" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="19"/>
+      <c r="C33" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="19">
+        <v>16</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="19"/>
+      <c r="C34" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="19">
+        <v>16</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2</v>
+      </c>
+      <c r="H34" s="34"/>
+      <c r="I34" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="19"/>
+      <c r="C35" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="19">
+        <v>16</v>
+      </c>
+      <c r="G35" s="19">
+        <v>2</v>
+      </c>
+      <c r="H35" s="34"/>
+      <c r="I35" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="19"/>
+      <c r="C36" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="19">
+        <v>16</v>
+      </c>
+      <c r="G36" s="19">
+        <v>2</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="19"/>
+      <c r="C37" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="19">
+        <v>16</v>
+      </c>
+      <c r="G37" s="19">
+        <v>2</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="19"/>
+      <c r="C38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="19">
+        <v>16</v>
+      </c>
+      <c r="G38" s="19">
+        <v>2</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="19"/>
+      <c r="C39" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="19">
+        <v>16</v>
+      </c>
+      <c r="G39" s="19">
+        <v>2</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="19"/>
+      <c r="C40" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="19">
+        <v>16</v>
+      </c>
+      <c r="G40" s="19">
+        <v>2</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="19"/>
+      <c r="C41" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="19">
+        <v>16</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="19"/>
+      <c r="C42" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="19">
+        <v>16</v>
+      </c>
+      <c r="G42" s="19">
+        <v>2</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="I42" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="19"/>
+      <c r="C43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="19">
+        <v>16</v>
+      </c>
+      <c r="G43" s="19">
+        <v>2</v>
+      </c>
+      <c r="H43" s="34"/>
+      <c r="I43" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="19"/>
+      <c r="C44" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="19">
+        <v>16</v>
+      </c>
+      <c r="G44" s="19">
+        <v>2</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="19"/>
+      <c r="C45" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="19">
+        <v>16</v>
+      </c>
+      <c r="G45" s="19">
+        <v>2</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="19"/>
+      <c r="C46" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="19">
+        <v>16</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="19"/>
+      <c r="C47" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="19">
+        <v>16</v>
+      </c>
+      <c r="G47" s="19">
+        <v>2</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="19"/>
+      <c r="C48" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="19">
+        <v>16</v>
+      </c>
+      <c r="G48" s="19">
+        <v>2</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="19"/>
+      <c r="C49" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="19">
+        <v>16</v>
+      </c>
+      <c r="G49" s="19">
+        <v>2</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="19"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I51" s="19"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05488417-08EE-4DF5-B3B6-01870335D3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1F0DD-B28D-4E5E-BC87-8EA8B56C61F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>雜項代碼檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>代碼類別</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -310,248 +306,252 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>專案放款生效日期固定取1日(02:專案放款)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:補貼息
+02:放款金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(放款金額)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.專案放款(2.放款金額)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6304</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料年月</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>340LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o340LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o990LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>921LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o921LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>990LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIALoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IALoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oToTalLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToTalLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IILoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIILoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIBLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oICLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIDLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIFLoanBal</t>
+  </si>
+  <si>
+    <t>oIGLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIELoanBal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IELoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oIHLoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收金額-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率1-青年優惠房屋貸款暨信用保證專案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>921重建優惠房屋貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次購屋貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次購屋貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>921重建優惠房屋貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收款項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IA 1200億青年優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IA 1200億青年優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 20億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 20億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE 15億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE 15億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF 12億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF 12億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG 10億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG 10億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>II 2000億優惠購屋專案貸款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>II 2000億優惠購屋專案貸款-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案貸款總額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案貸款總額-調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>01:政府補貼利率
 02:專案放款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>專案放款生效日期固定取1日(02:專案放款)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:補貼息
-02:放款金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(放款金額)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.專案放款(2.放款金額)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>L6304</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>YearMonth</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料年月</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>340LoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>o340LoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>o990LoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>921LoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>o921LoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>990LoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oIALoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IALoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oToTalLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToTalLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IILoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oIILoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IHLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oIBLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oICLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oIDLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oIFLoanBal</t>
-  </si>
-  <si>
-    <t>oIGLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IGLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oIELoanBal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IELoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>oIHLoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>催收金額-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府補貼利率1-青年優惠房屋貸款暨信用保證專案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>921重建優惠房屋貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次購屋貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次購屋貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>921重建優惠房屋貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>催收款項</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IB 2000億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IB 2000億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IA 1200億青年優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IA 1200億青年優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC 2000億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC 2000億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 20億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 20億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE 15億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE 15億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF 12億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF 12億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IG 10億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IG 10億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH 2000億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH 2000億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>II 2000億優惠購屋專案貸款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>II 2000億優惠購屋專案貸款-調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案貸款總額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案貸款總額-調整</t>
+    <t>雜項資料檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -559,7 +559,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>88風災調整數</t>
+    <t>88風災調整數(不含340)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -899,8 +899,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{77367FA6-61AF-46C5-BA64-2D1EB70AC746}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{74F5CAF7-F319-4DB4-BAF7-AF4FBE364C94}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1230,7 +1230,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -1336,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.4">
@@ -1357,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>29</v>
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1390,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.4">
@@ -1399,10 +1399,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>29</v>
@@ -1411,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="19">
         <v>6</v>
@@ -1518,7 +1518,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19">
         <v>6</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:I51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -1662,7 +1662,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -1684,13 +1684,13 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1702,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>37</v>
@@ -1717,10 +1717,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1732,7 +1732,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>37</v>
@@ -1747,10 +1747,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>37</v>
@@ -1777,10 +1777,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1788,10 +1788,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>37</v>
@@ -1806,10 +1806,10 @@
         <v>0.375</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1817,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>37</v>
@@ -1835,10 +1835,10 @@
         <v>0.25</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1846,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>37</v>
@@ -1864,10 +1864,10 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1875,10 +1875,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1914,10 +1914,10 @@
       <c r="A22" s="8"/>
       <c r="B22" s="19"/>
       <c r="C22" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>35</v>
@@ -1928,17 +1928,17 @@
       <c r="G22" s="19"/>
       <c r="H22" s="34"/>
       <c r="I22" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="19"/>
       <c r="C23" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>37</v>
@@ -1951,17 +1951,17 @@
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="19"/>
       <c r="C24" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>37</v>
@@ -1974,17 +1974,17 @@
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="19"/>
       <c r="C25" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>37</v>
@@ -1997,16 +1997,16 @@
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
       <c r="C26" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>37</v>
@@ -2019,16 +2019,16 @@
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B27" s="19"/>
       <c r="C27" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>37</v>
@@ -2041,16 +2041,16 @@
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B28" s="19"/>
       <c r="C28" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>37</v>
@@ -2063,16 +2063,16 @@
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" s="19"/>
       <c r="C29" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>37</v>
@@ -2085,16 +2085,16 @@
       </c>
       <c r="H29" s="34"/>
       <c r="I29" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B30" s="19"/>
       <c r="C30" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>37</v>
@@ -2107,16 +2107,16 @@
       </c>
       <c r="H30" s="34"/>
       <c r="I30" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B31" s="19"/>
       <c r="C31" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>37</v>
@@ -2129,16 +2129,16 @@
       </c>
       <c r="H31" s="34"/>
       <c r="I31" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B32" s="19"/>
       <c r="C32" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>37</v>
@@ -2151,16 +2151,16 @@
       </c>
       <c r="H32" s="34"/>
       <c r="I32" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="19"/>
       <c r="C33" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>37</v>
@@ -2173,16 +2173,16 @@
       </c>
       <c r="H33" s="34"/>
       <c r="I33" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="19"/>
       <c r="C34" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>37</v>
@@ -2195,16 +2195,16 @@
       </c>
       <c r="H34" s="34"/>
       <c r="I34" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="19"/>
       <c r="C35" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>37</v>
@@ -2217,16 +2217,16 @@
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="19"/>
       <c r="C36" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>37</v>
@@ -2239,16 +2239,16 @@
       </c>
       <c r="H36" s="34"/>
       <c r="I36" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="19"/>
       <c r="C37" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>37</v>
@@ -2261,16 +2261,16 @@
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="19"/>
       <c r="C38" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>37</v>
@@ -2283,16 +2283,16 @@
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="19"/>
       <c r="C39" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>37</v>
@@ -2305,16 +2305,16 @@
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="19"/>
       <c r="C40" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>37</v>
@@ -2327,16 +2327,16 @@
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="19"/>
       <c r="C41" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>37</v>
@@ -2349,16 +2349,16 @@
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="19"/>
       <c r="C42" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>37</v>
@@ -2371,16 +2371,16 @@
       </c>
       <c r="H42" s="34"/>
       <c r="I42" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="19"/>
       <c r="C43" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>37</v>
@@ -2393,16 +2393,16 @@
       </c>
       <c r="H43" s="34"/>
       <c r="I43" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="19"/>
       <c r="C44" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>37</v>
@@ -2415,16 +2415,16 @@
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="19"/>
       <c r="C45" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>37</v>
@@ -2437,16 +2437,16 @@
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="19"/>
       <c r="C46" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>37</v>
@@ -2459,16 +2459,16 @@
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="19"/>
       <c r="C47" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>37</v>
@@ -2481,16 +2481,16 @@
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="19"/>
       <c r="C48" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>37</v>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1F0DD-B28D-4E5E-BC87-8EA8B56C61F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C3322-78BD-4EAB-8BE1-38D14952F777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="172">
   <si>
     <t>備註說明</t>
   </si>
@@ -281,10 +281,6 @@
   </si>
   <si>
     <t>西元年20220323</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.政府補貼利率(補貼息)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -310,19 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01:補貼息
-02:放款金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(放款金額)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.專案放款(2.放款金額)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>L6304</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -542,24 +525,166 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>雜項資料檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88LoanBal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>88風災調整數(不含340)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>專案貸款總額-調整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01:政府補貼利率
-02:專案放款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雜項資料檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>88LoanBal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>88風災調整數(不含340)</t>
+    <t>L7205更新MonthlyLM055AssetLoss計算專案貸款差額使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ref JsonFields </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.政府補貼利率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.補貼息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.專案放款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.放款金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.資產分類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.提存比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDate</t>
+  </si>
+  <si>
+    <t>暫無</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate11</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate12</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate21</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate22</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate23</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClassRate5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecificAssetsRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonSpecificAssetsRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntestRecRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>應收利息提列比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第五類提存比率-無擔保部分-超過清償期12月者
+或拍定貨拍賣無實益之損失者
+或放款資產經評估無法回收者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第四類提存比率-無擔保部分-超過清償期6-12月者
+或無擔保但有協議且正常還款者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第三類提存比率-有足額擔保-逾繳超過清償期12月者或無擔保部分-超過清償期3-6月者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第二類提存比率-有足額擔保-逾繳超過清償期7-12月者或無擔保部分-超過清償期1-3月者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第二類提存比率-有足額擔保-逾繳超過清償期1-6月者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第二類提存比率-有足額擔保-但債信已不良者
+(有擔保分期協議且正常還款者)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第一類提存比率-特定放款資產項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產分類第一類提存比率-正常類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保放款折溢價 提存比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收放款折溢價與費用 提存比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定放款資產項目 提存比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非特定放款資產項目 提存比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanDisPreRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollDisPreRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -649,6 +774,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -769,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,15 +1002,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -895,6 +1022,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1204,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1222,23 +1352,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1250,10 +1380,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
@@ -1265,10 +1395,10 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="15"/>
       <c r="D4" s="5"/>
       <c r="E4" s="14"/>
@@ -1276,10 +1406,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="15"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1287,10 +1417,10 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="14"/>
@@ -1298,10 +1428,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="16"/>
@@ -1331,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1351,7 +1481,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
@@ -1369,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1390,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.4">
@@ -1414,7 +1544,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1603,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1628,38 +1758,110 @@
         <v>45</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19">
+        <v>8</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="35"/>
+      <c r="J6" s="31" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="19">
+        <v>6</v>
+      </c>
+      <c r="G7" s="19">
         <v>4</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>42</v>
+      <c r="H7" s="33">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>74</v>
@@ -1668,41 +1870,43 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="19">
-        <v>8</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="34" t="s">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>4</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0.97499999999999998</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>37</v>
@@ -1713,26 +1917,25 @@
       <c r="G9" s="19">
         <v>4</v>
       </c>
-      <c r="H9" s="34">
-        <v>0.97499999999999998</v>
+      <c r="H9" s="33">
+        <v>0.55000000000000004</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
       <c r="B10" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>37</v>
@@ -1743,26 +1946,25 @@
       <c r="G10" s="19">
         <v>4</v>
       </c>
-      <c r="H10" s="34">
-        <v>0.97499999999999998</v>
+      <c r="H10" s="33">
+        <v>0.375</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
       <c r="B11" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>37</v>
@@ -1773,25 +1975,25 @@
       <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="H11" s="34">
-        <v>0.55000000000000004</v>
+      <c r="H11" s="33">
+        <v>0.25</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>37</v>
@@ -1802,143 +2004,205 @@
       <c r="G12" s="19">
         <v>4</v>
       </c>
-      <c r="H12" s="34">
-        <v>0.375</v>
+      <c r="H12" s="33">
+        <v>0.82499999999999996</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="19">
-        <v>6</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="C16" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="19">
-        <v>6</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="19">
-        <v>6</v>
-      </c>
-      <c r="G14" s="19">
-        <v>4</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>75</v>
+      <c r="G16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D17" s="33"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="19">
+        <v>8</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="19">
+        <v>16</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="35"/>
+      <c r="D19" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19">
+        <v>16</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>42</v>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="19">
+        <v>16</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>83</v>
+      <c r="C22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22" s="19">
-        <v>8</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2</v>
+      </c>
+      <c r="H22" s="33"/>
       <c r="I22" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
       <c r="B23" s="19"/>
       <c r="C23" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>37</v>
@@ -1949,19 +2213,18 @@
       <c r="G23" s="19">
         <v>2</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
       <c r="B24" s="19"/>
       <c r="C24" s="21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>37</v>
@@ -1972,19 +2235,18 @@
       <c r="G24" s="19">
         <v>2</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
       <c r="B25" s="19"/>
       <c r="C25" s="21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>37</v>
@@ -1995,18 +2257,18 @@
       <c r="G25" s="19">
         <v>2</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
       <c r="C26" s="21" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>37</v>
@@ -2017,18 +2279,18 @@
       <c r="G26" s="19">
         <v>2</v>
       </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B27" s="19"/>
       <c r="C27" s="21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>37</v>
@@ -2039,18 +2301,18 @@
       <c r="G27" s="19">
         <v>2</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B28" s="19"/>
       <c r="C28" s="21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>37</v>
@@ -2061,18 +2323,18 @@
       <c r="G28" s="19">
         <v>2</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" s="19"/>
       <c r="C29" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>37</v>
@@ -2083,18 +2345,18 @@
       <c r="G29" s="19">
         <v>2</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B30" s="19"/>
       <c r="C30" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>37</v>
@@ -2105,18 +2367,18 @@
       <c r="G30" s="19">
         <v>2</v>
       </c>
-      <c r="H30" s="34"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B31" s="19"/>
       <c r="C31" s="21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>37</v>
@@ -2127,18 +2389,18 @@
       <c r="G31" s="19">
         <v>2</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B32" s="19"/>
       <c r="C32" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>37</v>
@@ -2149,18 +2411,18 @@
       <c r="G32" s="19">
         <v>2</v>
       </c>
-      <c r="H32" s="34"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B33" s="19"/>
       <c r="C33" s="21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>37</v>
@@ -2171,18 +2433,18 @@
       <c r="G33" s="19">
         <v>2</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B34" s="19"/>
       <c r="C34" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>37</v>
@@ -2193,18 +2455,18 @@
       <c r="G34" s="19">
         <v>2</v>
       </c>
-      <c r="H34" s="34"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B35" s="19"/>
       <c r="C35" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>37</v>
@@ -2215,18 +2477,18 @@
       <c r="G35" s="19">
         <v>2</v>
       </c>
-      <c r="H35" s="34"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B36" s="19"/>
       <c r="C36" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>37</v>
@@ -2237,18 +2499,18 @@
       <c r="G36" s="19">
         <v>2</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B37" s="19"/>
       <c r="C37" s="21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>37</v>
@@ -2259,18 +2521,18 @@
       <c r="G37" s="19">
         <v>2</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B38" s="19"/>
       <c r="C38" s="21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>37</v>
@@ -2281,18 +2543,18 @@
       <c r="G38" s="19">
         <v>2</v>
       </c>
-      <c r="H38" s="34"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B39" s="19"/>
       <c r="C39" s="21" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>37</v>
@@ -2303,18 +2565,18 @@
       <c r="G39" s="19">
         <v>2</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B40" s="19"/>
       <c r="C40" s="21" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>37</v>
@@ -2325,18 +2587,18 @@
       <c r="G40" s="19">
         <v>2</v>
       </c>
-      <c r="H40" s="34"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B41" s="19"/>
       <c r="C41" s="21" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>37</v>
@@ -2347,18 +2609,18 @@
       <c r="G41" s="19">
         <v>2</v>
       </c>
-      <c r="H41" s="34"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B42" s="19"/>
       <c r="C42" s="21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>37</v>
@@ -2369,18 +2631,18 @@
       <c r="G42" s="19">
         <v>2</v>
       </c>
-      <c r="H42" s="34"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B43" s="19"/>
       <c r="C43" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>37</v>
@@ -2391,15 +2653,15 @@
       <c r="G43" s="19">
         <v>2</v>
       </c>
-      <c r="H43" s="34"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.4">
       <c r="B44" s="19"/>
       <c r="C44" s="21" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>134</v>
@@ -2413,132 +2675,365 @@
       <c r="G44" s="19">
         <v>2</v>
       </c>
-      <c r="H44" s="34"/>
+      <c r="H44" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="I44" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B45" s="19"/>
-      <c r="C45" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="19">
-        <v>16</v>
-      </c>
-      <c r="G45" s="19">
-        <v>2</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="19"/>
-      <c r="C46" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="19">
-        <v>16</v>
-      </c>
-      <c r="G46" s="19">
-        <v>2</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="19"/>
-      <c r="C47" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="19">
-        <v>16</v>
-      </c>
-      <c r="G47" s="19">
-        <v>2</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="19"/>
-      <c r="C48" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="19">
-        <v>16</v>
-      </c>
-      <c r="G48" s="19">
-        <v>2</v>
-      </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="19"/>
-      <c r="C49" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="19">
-        <v>16</v>
-      </c>
-      <c r="G49" s="19">
-        <v>2</v>
-      </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C45" s="21"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="8"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="C50" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="19">
+        <v>6</v>
+      </c>
       <c r="G50" s="19"/>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="I51" s="19"/>
+      <c r="H50" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="19">
+        <v>6</v>
+      </c>
+      <c r="G51" s="19">
+        <v>4</v>
+      </c>
+      <c r="H51" s="33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="19">
+        <v>6</v>
+      </c>
+      <c r="G52" s="19">
+        <v>4</v>
+      </c>
+      <c r="H52" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="19">
+        <v>6</v>
+      </c>
+      <c r="G53" s="19">
+        <v>4</v>
+      </c>
+      <c r="H53" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B54" s="19"/>
+      <c r="C54" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="19">
+        <v>6</v>
+      </c>
+      <c r="G54" s="19">
+        <v>4</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B55" s="19"/>
+      <c r="C55" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="19">
+        <v>6</v>
+      </c>
+      <c r="G55" s="19">
+        <v>4</v>
+      </c>
+      <c r="H55" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B56" s="19"/>
+      <c r="C56" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="19">
+        <v>6</v>
+      </c>
+      <c r="G56" s="19">
+        <v>4</v>
+      </c>
+      <c r="H56" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B57" s="19"/>
+      <c r="C57" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="19">
+        <v>6</v>
+      </c>
+      <c r="G57" s="19">
+        <v>4</v>
+      </c>
+      <c r="H57" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.4">
+      <c r="B58" s="19"/>
+      <c r="C58" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="19">
+        <v>6</v>
+      </c>
+      <c r="G58" s="19">
+        <v>4</v>
+      </c>
+      <c r="H58" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="19"/>
+      <c r="C59" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="19">
+        <v>6</v>
+      </c>
+      <c r="G59" s="19">
+        <v>4</v>
+      </c>
+      <c r="H59" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="19"/>
+      <c r="C60" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="19">
+        <v>6</v>
+      </c>
+      <c r="G60" s="19">
+        <v>4</v>
+      </c>
+      <c r="H60" s="33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="19"/>
+      <c r="C61" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="19">
+        <v>6</v>
+      </c>
+      <c r="G61" s="19">
+        <v>4</v>
+      </c>
+      <c r="H61" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="19"/>
+      <c r="C62" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="19">
+        <v>6</v>
+      </c>
+      <c r="G62" s="19">
+        <v>4</v>
+      </c>
+      <c r="H62" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="19"/>
+      <c r="C63" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="19">
+        <v>6</v>
+      </c>
+      <c r="G63" s="19">
+        <v>4</v>
+      </c>
+      <c r="H63" s="33">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdComm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C3322-78BD-4EAB-8BE1-38D14952F777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657FC3C7-581B-4A4D-8CDE-6356EED237CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="214">
   <si>
     <t>備註說明</t>
   </si>
@@ -565,15 +565,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>03.資產分類</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>01.提存比率</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectDate</t>
   </si>
   <si>
     <t>暫無</t>
@@ -686,6 +679,173 @@
   <si>
     <t>CollDisPreRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.資產分類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.風險控管限額標準</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditRateIRA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一放款授信對象-評等A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一放款授信對象-評等A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位億元整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupRateIRA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一放款授信對象-評等B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一放款授信對象-評等B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupRateIRB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一關係企業或集團-評等A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一關係企業或集團-評等A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一行業別-評等A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一行業別-評等A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryRateIRA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditRateIRB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryRateIRB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一關係企業或集團-評等B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一關係企業或集團-評等B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一行業別-評等B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一行業別-評等B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditRateIRC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupRateIRC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryRateIRC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一放款授信對象-評等C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一放款授信對象-評等C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一關係企業或集團-評等C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一關係企業或集團-評等C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(單一行業別-評等C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款總額不得逾億元(單一行業別-評等C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryRateIRAB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值限額標準(評等A與B行業別)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元20230301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.行業別評等-風險控管限額標準</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditLimitLoanIRA</t>
+  </si>
+  <si>
+    <t>GroupLimitLoanIRA</t>
+  </si>
+  <si>
+    <t>IndustryLimitLoanIRA</t>
+  </si>
+  <si>
+    <t>CreditLimitLoanIRB</t>
+  </si>
+  <si>
+    <t>GroupLimitLoanIRB</t>
+  </si>
+  <si>
+    <t>IndustryLimitLoanIRB</t>
+  </si>
+  <si>
+    <t>CreditLimitLoanIRC</t>
+  </si>
+  <si>
+    <t>GroupLimitLoanIRC</t>
+  </si>
+  <si>
+    <t>IndustryLimitLoanIRC</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1165,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,9 +1185,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1352,10 +1512,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
@@ -1367,8 +1527,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1380,10 +1540,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
@@ -1395,10 +1555,10 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="15"/>
       <c r="D4" s="5"/>
       <c r="E4" s="14"/>
@@ -1406,10 +1566,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="15"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1417,10 +1577,10 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="14"/>
@@ -1428,10 +1588,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="16"/>
@@ -1677,7 +1837,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1733,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1765,7 +1925,7 @@
       <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1776,7 +1936,7 @@
       <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="34" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2021,7 +2181,7 @@
       <c r="B14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="34" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2032,7 +2192,7 @@
       <c r="B15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="34" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2683,90 +2843,103 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="19"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
       <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I46" s="19"/>
+      <c r="A46" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>142</v>
+        <v>50</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>143</v>
+      <c r="B48" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>0</v>
+      <c r="A49" s="8"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="19">
+        <v>8</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="33" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>79</v>
+      <c r="C50" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" s="19">
         <v>6</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="33" t="s">
-        <v>145</v>
+      <c r="G50" s="19">
+        <v>4</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="19"/>
       <c r="C51" s="21" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>37</v>
@@ -2775,20 +2948,20 @@
         <v>6</v>
       </c>
       <c r="G51" s="19">
-        <v>4</v>
-      </c>
-      <c r="H51" s="33">
-        <v>5.0000000000000001E-3</v>
+        <v>2</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="19"/>
       <c r="C52" s="21" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>37</v>
@@ -2800,17 +2973,16 @@
         <v>4</v>
       </c>
       <c r="H52" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B53" s="19"/>
       <c r="C53" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>163</v>
+        <v>206</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>37</v>
@@ -2819,19 +2991,19 @@
         <v>6</v>
       </c>
       <c r="G53" s="19">
-        <v>4</v>
-      </c>
-      <c r="H53" s="33">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B54" s="19"/>
       <c r="C54" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>162</v>
+        <v>185</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>37</v>
@@ -2843,16 +3015,16 @@
         <v>4</v>
       </c>
       <c r="H54" s="33">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B55" s="19"/>
       <c r="C55" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>161</v>
+        <v>207</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>37</v>
@@ -2861,19 +3033,19 @@
         <v>6</v>
       </c>
       <c r="G55" s="19">
-        <v>4</v>
-      </c>
-      <c r="H55" s="33">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B56" s="19"/>
       <c r="C56" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>160</v>
+        <v>186</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>37</v>
@@ -2885,16 +3057,16 @@
         <v>4</v>
       </c>
       <c r="H56" s="33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" s="19"/>
       <c r="C57" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>159</v>
+        <v>208</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>179</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>37</v>
@@ -2903,19 +3075,19 @@
         <v>6</v>
       </c>
       <c r="G57" s="19">
-        <v>4</v>
-      </c>
-      <c r="H57" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B58" s="19"/>
       <c r="C58" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>158</v>
+        <v>180</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>37</v>
@@ -2927,16 +3099,16 @@
         <v>4</v>
       </c>
       <c r="H58" s="33">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B59" s="19"/>
       <c r="C59" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>157</v>
+        <v>209</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>189</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>37</v>
@@ -2945,19 +3117,19 @@
         <v>6</v>
       </c>
       <c r="G59" s="19">
-        <v>4</v>
-      </c>
-      <c r="H59" s="33">
-        <v>0.02</v>
+        <v>2</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B60" s="19"/>
       <c r="C60" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>37</v>
@@ -2969,16 +3141,16 @@
         <v>4</v>
       </c>
       <c r="H60" s="33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61" s="19"/>
       <c r="C61" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>37</v>
@@ -2987,19 +3159,19 @@
         <v>6</v>
       </c>
       <c r="G61" s="19">
-        <v>4</v>
-      </c>
-      <c r="H61" s="33">
-        <v>0.02</v>
+        <v>2</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B62" s="19"/>
       <c r="C62" s="21" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>37</v>
@@ -3011,27 +3183,473 @@
         <v>4</v>
       </c>
       <c r="H62" s="33">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B63" s="19"/>
       <c r="C63" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="19">
+        <v>6</v>
+      </c>
+      <c r="G63" s="19">
+        <v>2</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B64" s="19"/>
+      <c r="C64" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="19">
+        <v>6</v>
+      </c>
+      <c r="G64" s="19">
+        <v>4</v>
+      </c>
+      <c r="H64" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B65" s="19"/>
+      <c r="C65" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="19">
+        <v>6</v>
+      </c>
+      <c r="G65" s="19">
+        <v>2</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B66" s="19"/>
+      <c r="C66" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="19">
+        <v>6</v>
+      </c>
+      <c r="G66" s="19">
+        <v>4</v>
+      </c>
+      <c r="H66" s="33">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B67" s="19"/>
+      <c r="C67" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="19">
+        <v>6</v>
+      </c>
+      <c r="G67" s="19">
+        <v>2</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B68" s="19"/>
+      <c r="C68" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="19">
+        <v>6</v>
+      </c>
+      <c r="G68" s="19">
+        <v>4</v>
+      </c>
+      <c r="H68" s="33">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B72" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="8"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="19">
+        <v>6</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="8"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="19">
+        <v>6</v>
+      </c>
+      <c r="G74" s="19">
+        <v>4</v>
+      </c>
+      <c r="H74" s="33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="8"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="19">
+        <v>6</v>
+      </c>
+      <c r="G75" s="19">
+        <v>4</v>
+      </c>
+      <c r="H75" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="A76" s="8"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="19">
+        <v>6</v>
+      </c>
+      <c r="G76" s="19">
+        <v>4</v>
+      </c>
+      <c r="H76" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B77" s="19"/>
+      <c r="C77" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="19">
+        <v>6</v>
+      </c>
+      <c r="G77" s="19">
+        <v>4</v>
+      </c>
+      <c r="H77" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B78" s="19"/>
+      <c r="C78" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="19">
+        <v>6</v>
+      </c>
+      <c r="G78" s="19">
+        <v>4</v>
+      </c>
+      <c r="H78" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B79" s="19"/>
+      <c r="C79" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="19">
+        <v>6</v>
+      </c>
+      <c r="G79" s="19">
+        <v>4</v>
+      </c>
+      <c r="H79" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="B80" s="19"/>
+      <c r="C80" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="19">
+        <v>6</v>
+      </c>
+      <c r="G80" s="19">
+        <v>4</v>
+      </c>
+      <c r="H80" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="51" x14ac:dyDescent="0.4">
+      <c r="B81" s="19"/>
+      <c r="C81" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="19">
+        <v>6</v>
+      </c>
+      <c r="G81" s="19">
+        <v>4</v>
+      </c>
+      <c r="H81" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B82" s="19"/>
+      <c r="C82" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="E82" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="19">
+        <v>6</v>
+      </c>
+      <c r="G82" s="19">
+        <v>4</v>
+      </c>
+      <c r="H82" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B83" s="19"/>
+      <c r="C83" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="19">
+        <v>6</v>
+      </c>
+      <c r="G83" s="19">
+        <v>4</v>
+      </c>
+      <c r="H83" s="33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B84" s="19"/>
+      <c r="C84" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="19">
-        <v>6</v>
-      </c>
-      <c r="G63" s="19">
+      <c r="D84" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="19">
+        <v>6</v>
+      </c>
+      <c r="G84" s="19">
         <v>4</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H84" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B85" s="19"/>
+      <c r="C85" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="19">
+        <v>6</v>
+      </c>
+      <c r="G85" s="19">
+        <v>4</v>
+      </c>
+      <c r="H85" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B86" s="19"/>
+      <c r="C86" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="19">
+        <v>6</v>
+      </c>
+      <c r="G86" s="19">
+        <v>4</v>
+      </c>
+      <c r="H86" s="33">
         <v>0.01</v>
       </c>
     </row>
